--- a/analysis-8puzzle..xlsx
+++ b/analysis-8puzzle..xlsx
@@ -7183,16 +7183,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7660,7 +7660,7 @@
   <dimension ref="E5:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
